--- a/va_facility_data_2025-02-20/Brockton VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Brockton%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brockton VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Brockton%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5bd5219266cd4495875a278d65866700"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3dd2810788f84ee2b0fc6098107018d4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R806cf6f9d078467e96f65605679a636f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rca9da5ea033a4b12a8989b2ed0c6ffdc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R90c8382771054b77b779ee37cf979b61"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R01efb01ce1774c3d81899a345e9e634b"/>
   </x:sheets>
 </x:workbook>
 </file>
